--- a/Code/Results/Cases/Case_4_166/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_166/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.146251685579273</v>
+        <v>0.704964581735112</v>
       </c>
       <c r="C2">
-        <v>0.6401055656698134</v>
+        <v>0.1941479203010203</v>
       </c>
       <c r="D2">
-        <v>0.2051083302665546</v>
+        <v>0.07918298642189825</v>
       </c>
       <c r="E2">
-        <v>0.2097019284270445</v>
+        <v>0.1122966986414156</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007757765001922062</v>
+        <v>0.002401136788963063</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2679391704983338</v>
+        <v>0.4389413944494009</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.9371878385985966</v>
+        <v>0.3353924175294054</v>
       </c>
       <c r="N2">
-        <v>0.535735165230971</v>
+        <v>1.010228305635227</v>
       </c>
       <c r="O2">
-        <v>2.078805284278502</v>
+        <v>2.247061471130479</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.864542644465047</v>
+        <v>0.6211666978468315</v>
       </c>
       <c r="C3">
-        <v>0.5576816749642433</v>
+        <v>0.1692864066073128</v>
       </c>
       <c r="D3">
-        <v>0.1776019570186378</v>
+        <v>0.07173041045494699</v>
       </c>
       <c r="E3">
-        <v>0.1827273205983317</v>
+        <v>0.1062102202841615</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0007806880377423591</v>
+        <v>0.002404374914167823</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.256612074993086</v>
+        <v>0.4407376141199677</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.8106065064771073</v>
+        <v>0.3002311413535779</v>
       </c>
       <c r="N3">
-        <v>0.568096883063486</v>
+        <v>1.02334869512595</v>
       </c>
       <c r="O3">
-        <v>1.889009099855116</v>
+        <v>2.219998014702497</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.692112523690952</v>
+        <v>0.5697016498697565</v>
       </c>
       <c r="C4">
-        <v>0.5072568226262604</v>
+        <v>0.1539761553915753</v>
       </c>
       <c r="D4">
-        <v>0.1609049610976285</v>
+        <v>0.06719039592093168</v>
       </c>
       <c r="E4">
-        <v>0.1666167785565662</v>
+        <v>0.1025699261534143</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0007837980163944924</v>
+        <v>0.0024064693446293</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2504974003795617</v>
+        <v>0.4421755267430427</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7336022788815768</v>
+        <v>0.2787351243650704</v>
       </c>
       <c r="N4">
-        <v>0.5890186380567748</v>
+        <v>1.031864350281911</v>
       </c>
       <c r="O4">
-        <v>1.777408917928142</v>
+        <v>2.20514321083445</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.621946853587559</v>
+        <v>0.5487267501344206</v>
       </c>
       <c r="C5">
-        <v>0.4867420005507483</v>
+        <v>0.1477258313397556</v>
       </c>
       <c r="D5">
-        <v>0.1541429956728848</v>
+        <v>0.06534928775027993</v>
       </c>
       <c r="E5">
-        <v>0.160152908014993</v>
+        <v>0.1011105665215766</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0007850896622292326</v>
+        <v>0.00240734963255456</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2482031297903902</v>
+        <v>0.4428455031918368</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7023755539997509</v>
+        <v>0.2699986101648477</v>
       </c>
       <c r="N5">
-        <v>0.5977995965617566</v>
+        <v>1.035450067930157</v>
       </c>
       <c r="O5">
-        <v>1.733073588373117</v>
+        <v>2.199531523722698</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.610301022175037</v>
+        <v>0.545243756653889</v>
       </c>
       <c r="C6">
-        <v>0.4833372172212762</v>
+        <v>0.1466872916415127</v>
       </c>
       <c r="D6">
-        <v>0.153022553710116</v>
+        <v>0.06504411457071058</v>
       </c>
       <c r="E6">
-        <v>0.1590853605905451</v>
+        <v>0.1008696883907305</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0007853056238122013</v>
+        <v>0.002407497424394341</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2478337097034036</v>
+        <v>0.4429618198789349</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6971988662654454</v>
+        <v>0.2685493212573604</v>
       </c>
       <c r="N6">
-        <v>0.59927282039326</v>
+        <v>1.036052448655127</v>
       </c>
       <c r="O6">
-        <v>1.725777989431379</v>
+        <v>2.198626348948949</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.691165880395744</v>
+        <v>0.5694187840637142</v>
       </c>
       <c r="C7">
-        <v>0.5069800319469948</v>
+        <v>0.1538919068564439</v>
       </c>
       <c r="D7">
-        <v>0.1608136038083785</v>
+        <v>0.06716552976813261</v>
       </c>
       <c r="E7">
-        <v>0.1665292100695623</v>
+        <v>0.1025501475211712</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0007838153368434075</v>
+        <v>0.002406481107882201</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2504656769449589</v>
+        <v>0.442184222411047</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.733180559051327</v>
+        <v>0.2786172065660182</v>
       </c>
       <c r="N7">
-        <v>0.5891360397417351</v>
+        <v>1.031912240888779</v>
       </c>
       <c r="O7">
-        <v>1.776806495352332</v>
+        <v>2.205065742789174</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.048984456813173</v>
+        <v>0.6760741503084091</v>
       </c>
       <c r="C8">
-        <v>0.6116398611336535</v>
+        <v>0.1855850933333727</v>
       </c>
       <c r="D8">
-        <v>0.1955804905201717</v>
+        <v>0.07660586011290604</v>
       </c>
       <c r="E8">
-        <v>0.2002995732292092</v>
+        <v>0.1101778264492523</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007774508025056382</v>
+        <v>0.002402231301475204</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2638506564022549</v>
+        <v>0.439491057000911</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8933767454111958</v>
+        <v>0.3232493832441747</v>
       </c>
       <c r="N8">
-        <v>0.5466695055107458</v>
+        <v>1.014656765584554</v>
       </c>
       <c r="O8">
-        <v>2.012278040846724</v>
+        <v>2.237363391814739</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.756681224571366</v>
+        <v>0.8851010841498237</v>
       </c>
       <c r="C9">
-        <v>0.8189538431034578</v>
+        <v>0.2473759845999552</v>
       </c>
       <c r="D9">
-        <v>0.2655786392671899</v>
+        <v>0.095406028847421</v>
       </c>
       <c r="E9">
-        <v>0.2707144557526249</v>
+        <v>0.1259164861639803</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007656890491031798</v>
+        <v>0.002394736343362596</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2974308139575896</v>
+        <v>0.4368788710264297</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.214550558872872</v>
+        <v>0.4115228065738421</v>
       </c>
       <c r="N9">
-        <v>0.4721803179061688</v>
+        <v>0.9844691588410797</v>
       </c>
       <c r="O9">
-        <v>2.517976254229353</v>
+        <v>2.314750478456688</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.282943995410164</v>
+        <v>1.038583172769052</v>
       </c>
       <c r="C10">
-        <v>0.9734825903245508</v>
+        <v>0.2925580362645235</v>
       </c>
       <c r="D10">
-        <v>0.3185641469960103</v>
+        <v>0.1093993153735511</v>
       </c>
       <c r="E10">
-        <v>0.325925532770718</v>
+        <v>0.1379742414340939</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007574426073809389</v>
+        <v>0.002389735864297102</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.327571204746981</v>
+        <v>0.436602485730802</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.456845458527923</v>
+        <v>0.4768560257221139</v>
       </c>
       <c r="N10">
-        <v>0.4234727291386839</v>
+        <v>0.9645193171226012</v>
       </c>
       <c r="O10">
-        <v>2.923504425116789</v>
+        <v>2.380277928565789</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.524378607417077</v>
+        <v>1.108384562073127</v>
       </c>
       <c r="C11">
-        <v>1.044497733288182</v>
+        <v>0.3130666915055258</v>
       </c>
       <c r="D11">
-        <v>0.3431160309694405</v>
+        <v>0.1158057277175146</v>
       </c>
       <c r="E11">
-        <v>0.3520266061793862</v>
+        <v>0.1435711011478773</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007537663322836627</v>
+        <v>0.002387569765615347</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3427142239924237</v>
+        <v>0.4368368856457678</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.568950527778028</v>
+        <v>0.5066868274648328</v>
       </c>
       <c r="N11">
-        <v>0.4027831343840518</v>
+        <v>0.9559284844248133</v>
       </c>
       <c r="O11">
-        <v>3.11713441832967</v>
+        <v>2.411994188282677</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.616155298381557</v>
+        <v>1.134813368723485</v>
       </c>
       <c r="C12">
-        <v>1.071514248007929</v>
+        <v>0.3208263126389568</v>
       </c>
       <c r="D12">
-        <v>0.3524875845569255</v>
+        <v>0.1182376038815107</v>
       </c>
       <c r="E12">
-        <v>0.3620733847092055</v>
+        <v>0.145706858625239</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007523840707033886</v>
+        <v>0.002386765057018136</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3486768046665745</v>
+        <v>0.4369777010064055</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.611719055501098</v>
+        <v>0.5179991149250327</v>
       </c>
       <c r="N12">
-        <v>0.395174564106334</v>
+        <v>0.9527451265222204</v>
       </c>
       <c r="O12">
-        <v>3.191935196541635</v>
+        <v>2.424280296073647</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.596372968199262</v>
+        <v>1.129121619448995</v>
       </c>
       <c r="C13">
-        <v>1.065689855378878</v>
+        <v>0.3191554329013115</v>
       </c>
       <c r="D13">
-        <v>0.3504657835516838</v>
+        <v>0.1177135924881298</v>
       </c>
       <c r="E13">
-        <v>0.3599020266274522</v>
+        <v>0.1452461534420095</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007526813424156842</v>
+        <v>0.002386937675205578</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3473821274943631</v>
+        <v>0.4369450545575617</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.602493220188933</v>
+        <v>0.515562097167404</v>
       </c>
       <c r="N13">
-        <v>0.3968028943358135</v>
+        <v>0.9534276127584995</v>
       </c>
       <c r="O13">
-        <v>3.175757081255739</v>
+        <v>2.421621969709747</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.531921751734217</v>
+        <v>1.110558950023858</v>
       </c>
       <c r="C14">
-        <v>1.046717771667687</v>
+        <v>0.3137052123162789</v>
       </c>
       <c r="D14">
-        <v>0.3438854862849325</v>
+        <v>0.1160056810205816</v>
       </c>
       <c r="E14">
-        <v>0.3528497673871769</v>
+        <v>0.1437464819380097</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007536524207411482</v>
+        <v>0.002387503250652037</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3432000595283213</v>
+        <v>0.4368474258542179</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.572462492808413</v>
+        <v>0.5076171745057678</v>
       </c>
       <c r="N14">
-        <v>0.402152549653735</v>
+        <v>0.9556651878550575</v>
       </c>
       <c r="O14">
-        <v>3.123257739929755</v>
+        <v>2.412999436436053</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.492490999858035</v>
+        <v>1.099188303536721</v>
       </c>
       <c r="C15">
-        <v>1.035113716972148</v>
+        <v>0.3103659371857077</v>
       </c>
       <c r="D15">
-        <v>0.3398648441330323</v>
+        <v>0.1149603063753943</v>
       </c>
       <c r="E15">
-        <v>0.3485519313459307</v>
+        <v>0.1428300272517831</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007542484897546074</v>
+        <v>0.002387851704285738</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3406688439802537</v>
+        <v>0.4367944122567096</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.554110496597275</v>
+        <v>0.502752769053842</v>
       </c>
       <c r="N15">
-        <v>0.4054592868707161</v>
+        <v>0.9570448620101217</v>
       </c>
       <c r="O15">
-        <v>3.091297801423792</v>
+        <v>2.407753855637196</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.267211461697684</v>
+        <v>1.03402104760039</v>
       </c>
       <c r="C16">
-        <v>0.9688578213373944</v>
+        <v>0.2912168350113689</v>
       </c>
       <c r="D16">
-        <v>0.3169694664835134</v>
+        <v>0.1089814656396442</v>
       </c>
       <c r="E16">
-        <v>0.3242413547907574</v>
+        <v>0.1376107457855511</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007576842935023651</v>
+        <v>0.002389879603433331</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3266122517014125</v>
+        <v>0.436594436675982</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.449560857246766</v>
+        <v>0.4749087456198566</v>
       </c>
       <c r="N16">
-        <v>0.424855635951392</v>
+        <v>0.9650905085280002</v>
       </c>
       <c r="O16">
-        <v>2.911047871079944</v>
+        <v>2.378243712732427</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.129570577034087</v>
+        <v>0.99403775272026</v>
       </c>
       <c r="C17">
-        <v>0.9284106260811029</v>
+        <v>0.2794579080366759</v>
       </c>
       <c r="D17">
-        <v>0.3030454699268574</v>
+        <v>0.1053241181624287</v>
       </c>
       <c r="E17">
-        <v>0.309594364297169</v>
+        <v>0.1344377016679346</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007598106377684586</v>
+        <v>0.00239115142548743</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3183710249793776</v>
+        <v>0.4365641856230411</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.385936805159531</v>
+        <v>0.4578557092745683</v>
       </c>
       <c r="N17">
-        <v>0.4371409055902689</v>
+        <v>0.9701504298832937</v>
       </c>
       <c r="O17">
-        <v>2.802924775393535</v>
+        <v>2.360629854635818</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.050590947363787</v>
+        <v>0.9710387375336609</v>
       </c>
       <c r="C18">
-        <v>0.9052127807227635</v>
+        <v>0.2726902656120842</v>
       </c>
       <c r="D18">
-        <v>0.2950783363967275</v>
+        <v>0.1032243461457796</v>
       </c>
       <c r="E18">
-        <v>0.3012611519847113</v>
+        <v>0.1326231498790875</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007610407812525533</v>
+        <v>0.002391893174478546</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3137642265552927</v>
+        <v>0.436580667041504</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.349516256737047</v>
+        <v>0.448057636221435</v>
       </c>
       <c r="N18">
-        <v>0.4443442405244475</v>
+        <v>0.9731063528331063</v>
       </c>
       <c r="O18">
-        <v>2.741586294859843</v>
+        <v>2.350678278525635</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.023880370625193</v>
+        <v>0.9632514024764305</v>
       </c>
       <c r="C19">
-        <v>0.8973691656062783</v>
+        <v>0.270398136893391</v>
       </c>
       <c r="D19">
-        <v>0.2923876588738921</v>
+        <v>0.102514057283841</v>
       </c>
       <c r="E19">
-        <v>0.2984547478720145</v>
+        <v>0.1320105685097772</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007614585377220606</v>
+        <v>0.002392146077444887</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3122266964026608</v>
+        <v>0.436592058341688</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.337213499285667</v>
+        <v>0.4447419561244459</v>
       </c>
       <c r="N19">
-        <v>0.4468062874201451</v>
+        <v>0.9741150034874408</v>
       </c>
       <c r="O19">
-        <v>2.720959639287315</v>
+        <v>2.347339619178683</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.144202848017017</v>
+        <v>0.9982942227112517</v>
       </c>
       <c r="C20">
-        <v>0.9327092891353175</v>
+        <v>0.2807101032807964</v>
       </c>
       <c r="D20">
-        <v>0.3045233314370961</v>
+        <v>0.1057130515838196</v>
       </c>
       <c r="E20">
-        <v>0.3111439605063566</v>
+        <v>0.1347743889597837</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007595835537370175</v>
+        <v>0.002391014979593951</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3192343623450711</v>
+        <v>0.4365638974055841</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.392691334200606</v>
+        <v>0.4596699585905668</v>
       </c>
       <c r="N20">
-        <v>0.435818815793354</v>
+        <v>0.9696070732141351</v>
       </c>
       <c r="O20">
-        <v>2.814345461484095</v>
+        <v>2.362486296334197</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.550842630332909</v>
+        <v>1.116011356546949</v>
       </c>
       <c r="C21">
-        <v>1.052286770918187</v>
+        <v>0.315306253139596</v>
       </c>
       <c r="D21">
-        <v>0.3458161805731663</v>
+        <v>0.1165071753870706</v>
       </c>
       <c r="E21">
-        <v>0.3549165869098658</v>
+        <v>0.1441865258711914</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007533669315934365</v>
+        <v>0.002387336706216521</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3444220516368333</v>
+        <v>0.436874686929734</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.581274260190298</v>
+        <v>0.5099503552705045</v>
       </c>
       <c r="N21">
-        <v>0.4005749623504258</v>
+        <v>0.9550060622031751</v>
       </c>
       <c r="O21">
-        <v>3.138636617247897</v>
+        <v>2.415524584618595</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.818680041129994</v>
+        <v>1.192925736743064</v>
       </c>
       <c r="C22">
-        <v>1.131175361293913</v>
+        <v>0.3378785429185598</v>
       </c>
       <c r="D22">
-        <v>0.3732416405793089</v>
+        <v>0.1235962075739963</v>
       </c>
       <c r="E22">
-        <v>0.3844853150577379</v>
+        <v>0.1504333230971255</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.000749361012388165</v>
+        <v>0.002385023319791582</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.362225933976859</v>
+        <v>0.4373813362068759</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.70639514435203</v>
+        <v>0.5429048859361529</v>
       </c>
       <c r="N22">
-        <v>0.3788671069997314</v>
+        <v>0.9458703973839562</v>
       </c>
       <c r="O22">
-        <v>3.359276344937825</v>
+        <v>2.451796752753694</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.675519698175094</v>
+        <v>1.151877236831979</v>
       </c>
       <c r="C23">
-        <v>1.088995960221553</v>
+        <v>0.3258348259033994</v>
       </c>
       <c r="D23">
-        <v>0.3585605938867786</v>
+        <v>0.1198094923338431</v>
       </c>
       <c r="E23">
-        <v>0.368608429569548</v>
+        <v>0.147090465165121</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.000751494160513233</v>
+        <v>0.002386249755022495</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3525929298698429</v>
+        <v>0.4370830664684462</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.639428206010976</v>
+        <v>0.5253078424501325</v>
       </c>
       <c r="N23">
-        <v>0.3903263301803257</v>
+        <v>0.9507089908364996</v>
       </c>
       <c r="O23">
-        <v>3.240663799972538</v>
+        <v>2.432289914336792</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.137587129337419</v>
+        <v>0.9963699102164583</v>
       </c>
       <c r="C24">
-        <v>0.9307656913837263</v>
+        <v>0.2801440084795388</v>
       </c>
       <c r="D24">
-        <v>0.3038550727487177</v>
+        <v>0.1055372058008004</v>
       </c>
       <c r="E24">
-        <v>0.3104431169743478</v>
+        <v>0.1346221425269292</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007596861944493263</v>
+        <v>0.002391076633866604</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3188436405497157</v>
+        <v>0.4365639222125068</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.389637123624325</v>
+        <v>0.4588497179744877</v>
       </c>
       <c r="N24">
-        <v>0.4364160964937973</v>
+        <v>0.9698525786551713</v>
       </c>
       <c r="O24">
-        <v>2.809179618062245</v>
+        <v>2.361646454451289</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.564326163737064</v>
+        <v>0.8285685403780576</v>
       </c>
       <c r="C25">
-        <v>0.7625546363077831</v>
+        <v>0.2306980408184245</v>
       </c>
       <c r="D25">
-        <v>0.2464032368513784</v>
+        <v>0.09028872449209757</v>
       </c>
       <c r="E25">
-        <v>0.2511265105444309</v>
+        <v>0.1215732577294162</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007687982273696772</v>
+        <v>0.002396674672865943</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.287463195035393</v>
+        <v>0.4372981778643066</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.126711721157129</v>
+        <v>0.3875600049020278</v>
       </c>
       <c r="N25">
-        <v>0.4913257227923999</v>
+        <v>0.9922445555910713</v>
       </c>
       <c r="O25">
-        <v>2.37575910625273</v>
+        <v>2.292300077178396</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_166/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_166/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.704964581735112</v>
+        <v>2.146251685579216</v>
       </c>
       <c r="C2">
-        <v>0.1941479203010203</v>
+        <v>0.640105565669927</v>
       </c>
       <c r="D2">
-        <v>0.07918298642189825</v>
+        <v>0.2051083302667678</v>
       </c>
       <c r="E2">
-        <v>0.1122966986414156</v>
+        <v>0.2097019284270374</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002401136788963063</v>
+        <v>0.0007757765002200379</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4389413944494009</v>
+        <v>0.2679391704983338</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3353924175294054</v>
+        <v>0.9371878385985966</v>
       </c>
       <c r="N2">
-        <v>1.010228305635227</v>
+        <v>0.5357351652309106</v>
       </c>
       <c r="O2">
-        <v>2.247061471130479</v>
+        <v>2.078805284278587</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6211666978468315</v>
+        <v>1.864542644465075</v>
       </c>
       <c r="C3">
-        <v>0.1692864066073128</v>
+        <v>0.5576816749643569</v>
       </c>
       <c r="D3">
-        <v>0.07173041045494699</v>
+        <v>0.1776019570185241</v>
       </c>
       <c r="E3">
-        <v>0.1062102202841615</v>
+        <v>0.1827273205983175</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002404374914167823</v>
+        <v>0.0007806880377409076</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4407376141199677</v>
+        <v>0.2566120749930896</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3002311413535779</v>
+        <v>0.8106065064771073</v>
       </c>
       <c r="N3">
-        <v>1.02334869512595</v>
+        <v>0.5680968830634896</v>
       </c>
       <c r="O3">
-        <v>2.219998014702497</v>
+        <v>1.889009099855173</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5697016498697565</v>
+        <v>1.692112523691094</v>
       </c>
       <c r="C4">
-        <v>0.1539761553915753</v>
+        <v>0.5072568226263741</v>
       </c>
       <c r="D4">
-        <v>0.06719039592093168</v>
+        <v>0.1609049610975575</v>
       </c>
       <c r="E4">
-        <v>0.1025699261534143</v>
+        <v>0.1666167785565449</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0024064693446293</v>
+        <v>0.0007837980163647517</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4421755267430427</v>
+        <v>0.2504974003795795</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2787351243650704</v>
+        <v>0.7336022788815484</v>
       </c>
       <c r="N4">
-        <v>1.031864350281911</v>
+        <v>0.5890186380567854</v>
       </c>
       <c r="O4">
-        <v>2.20514321083445</v>
+        <v>1.777408917928199</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5487267501344206</v>
+        <v>1.621946853587474</v>
       </c>
       <c r="C5">
-        <v>0.1477258313397556</v>
+        <v>0.4867420005504925</v>
       </c>
       <c r="D5">
-        <v>0.06534928775027993</v>
+        <v>0.1541429956729417</v>
       </c>
       <c r="E5">
-        <v>0.1011105665215766</v>
+        <v>0.160152908014993</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.00240734963255456</v>
+        <v>0.0007850896622836387</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4428455031918368</v>
+        <v>0.2482031297903831</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2699986101648477</v>
+        <v>0.7023755539997509</v>
       </c>
       <c r="N5">
-        <v>1.035450067930157</v>
+        <v>0.5977995965617531</v>
       </c>
       <c r="O5">
-        <v>2.199531523722698</v>
+        <v>1.73307358837306</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.545243756653889</v>
+        <v>1.610301022175037</v>
       </c>
       <c r="C6">
-        <v>0.1466872916415127</v>
+        <v>0.4833372172211341</v>
       </c>
       <c r="D6">
-        <v>0.06504411457071058</v>
+        <v>0.153022553710116</v>
       </c>
       <c r="E6">
-        <v>0.1008696883907305</v>
+        <v>0.1590853605905593</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002407497424394341</v>
+        <v>0.0007853056238450736</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4429618198789349</v>
+        <v>0.2478337097033858</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2685493212573604</v>
+        <v>0.6971988662654383</v>
       </c>
       <c r="N6">
-        <v>1.036052448655127</v>
+        <v>0.5992728203932529</v>
       </c>
       <c r="O6">
-        <v>2.198626348948949</v>
+        <v>1.725777989431379</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5694187840637142</v>
+        <v>1.691165880395658</v>
       </c>
       <c r="C7">
-        <v>0.1538919068564439</v>
+        <v>0.5069800319469948</v>
       </c>
       <c r="D7">
-        <v>0.06716552976813261</v>
+        <v>0.1608136038083643</v>
       </c>
       <c r="E7">
-        <v>0.1025501475211712</v>
+        <v>0.1665292100695623</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002406481107882201</v>
+        <v>0.0007838153368429079</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.442184222411047</v>
+        <v>0.2504656769449589</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2786172065660182</v>
+        <v>0.733180559051327</v>
       </c>
       <c r="N7">
-        <v>1.031912240888779</v>
+        <v>0.5891360397417316</v>
       </c>
       <c r="O7">
-        <v>2.205065742789174</v>
+        <v>1.776806495352332</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6760741503084091</v>
+        <v>2.048984456813088</v>
       </c>
       <c r="C8">
-        <v>0.1855850933333727</v>
+        <v>0.6116398611336251</v>
       </c>
       <c r="D8">
-        <v>0.07660586011290604</v>
+        <v>0.195580490520328</v>
       </c>
       <c r="E8">
-        <v>0.1101778264492523</v>
+        <v>0.2002995732292234</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002402231301475204</v>
+        <v>0.0007774508025062332</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.439491057000911</v>
+        <v>0.2638506564022585</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3232493832441747</v>
+        <v>0.8933767454111958</v>
       </c>
       <c r="N8">
-        <v>1.014656765584554</v>
+        <v>0.5466695055107529</v>
       </c>
       <c r="O8">
-        <v>2.237363391814739</v>
+        <v>2.012278040846752</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8851010841498237</v>
+        <v>2.756681224571366</v>
       </c>
       <c r="C9">
-        <v>0.2473759845999552</v>
+        <v>0.8189538431034862</v>
       </c>
       <c r="D9">
-        <v>0.095406028847421</v>
+        <v>0.2655786392668489</v>
       </c>
       <c r="E9">
-        <v>0.1259164861639803</v>
+        <v>0.2707144557526178</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002394736343362596</v>
+        <v>0.000765689049131435</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4368788710264297</v>
+        <v>0.297430813957611</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4115228065738421</v>
+        <v>1.214550558872858</v>
       </c>
       <c r="N9">
-        <v>0.9844691588410797</v>
+        <v>0.4721803179061617</v>
       </c>
       <c r="O9">
-        <v>2.314750478456688</v>
+        <v>2.517976254229268</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.038583172769052</v>
+        <v>3.282943995410221</v>
       </c>
       <c r="C10">
-        <v>0.2925580362645235</v>
+        <v>0.9734825903245508</v>
       </c>
       <c r="D10">
-        <v>0.1093993153735511</v>
+        <v>0.3185641469960814</v>
       </c>
       <c r="E10">
-        <v>0.1379742414340939</v>
+        <v>0.3259255327706967</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002389735864297102</v>
+        <v>0.0007574426073799028</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.436602485730802</v>
+        <v>0.327571204746981</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4768560257221139</v>
+        <v>1.456845458527894</v>
       </c>
       <c r="N10">
-        <v>0.9645193171226012</v>
+        <v>0.4234727291387301</v>
       </c>
       <c r="O10">
-        <v>2.380277928565789</v>
+        <v>2.923504425116846</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.108384562073127</v>
+        <v>3.52437860741702</v>
       </c>
       <c r="C11">
-        <v>0.3130666915055258</v>
+        <v>1.044497733287926</v>
       </c>
       <c r="D11">
-        <v>0.1158057277175146</v>
+        <v>0.3431160309693695</v>
       </c>
       <c r="E11">
-        <v>0.1435711011478773</v>
+        <v>0.352026606179372</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002387569765615347</v>
+        <v>0.000753766332249067</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4368368856457678</v>
+        <v>0.3427142239924237</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5066868274648328</v>
+        <v>1.568950527778028</v>
       </c>
       <c r="N11">
-        <v>0.9559284844248133</v>
+        <v>0.4027831343840624</v>
       </c>
       <c r="O11">
-        <v>2.411994188282677</v>
+        <v>3.117134418329641</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.134813368723485</v>
+        <v>3.616155298381614</v>
       </c>
       <c r="C12">
-        <v>0.3208263126389568</v>
+        <v>1.071514248007787</v>
       </c>
       <c r="D12">
-        <v>0.1182376038815107</v>
+        <v>0.3524875845569539</v>
       </c>
       <c r="E12">
-        <v>0.145706858625239</v>
+        <v>0.3620733847091699</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002386765057018136</v>
+        <v>0.000752384070675312</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4369777010064055</v>
+        <v>0.3486768046665674</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5179991149250327</v>
+        <v>1.611719055501084</v>
       </c>
       <c r="N12">
-        <v>0.9527451265222204</v>
+        <v>0.3951745641063269</v>
       </c>
       <c r="O12">
-        <v>2.424280296073647</v>
+        <v>3.191935196541664</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.129121619448995</v>
+        <v>3.596372968199432</v>
       </c>
       <c r="C13">
-        <v>0.3191554329013115</v>
+        <v>1.065689855378622</v>
       </c>
       <c r="D13">
-        <v>0.1177135924881298</v>
+        <v>0.3504657835516838</v>
       </c>
       <c r="E13">
-        <v>0.1452461534420095</v>
+        <v>0.3599020266274735</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002386937675205578</v>
+        <v>0.0007526813424444996</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4369450545575617</v>
+        <v>0.3473821274943631</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.515562097167404</v>
+        <v>1.602493220188947</v>
       </c>
       <c r="N13">
-        <v>0.9534276127584995</v>
+        <v>0.3968028943358171</v>
       </c>
       <c r="O13">
-        <v>2.421621969709747</v>
+        <v>3.175757081255625</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.110558950023858</v>
+        <v>3.531921751734103</v>
       </c>
       <c r="C14">
-        <v>0.3137052123162789</v>
+        <v>1.046717771667488</v>
       </c>
       <c r="D14">
-        <v>0.1160056810205816</v>
+        <v>0.3438854862848189</v>
       </c>
       <c r="E14">
-        <v>0.1437464819380097</v>
+        <v>0.3528497673871342</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002387503250652037</v>
+        <v>0.000753652420712319</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4368474258542179</v>
+        <v>0.3432000595283355</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5076171745057678</v>
+        <v>1.572462492808427</v>
       </c>
       <c r="N14">
-        <v>0.9556651878550575</v>
+        <v>0.4021525496537386</v>
       </c>
       <c r="O14">
-        <v>2.412999436436053</v>
+        <v>3.123257739929755</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.099188303536721</v>
+        <v>3.492490999857807</v>
       </c>
       <c r="C15">
-        <v>0.3103659371857077</v>
+        <v>1.035113716971836</v>
       </c>
       <c r="D15">
-        <v>0.1149603063753943</v>
+        <v>0.3398648441331034</v>
       </c>
       <c r="E15">
-        <v>0.1428300272517831</v>
+        <v>0.3485519313459164</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002387851704285738</v>
+        <v>0.0007542484897880782</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4367944122567096</v>
+        <v>0.3406688439802679</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.502752769053842</v>
+        <v>1.554110496597289</v>
       </c>
       <c r="N15">
-        <v>0.9570448620101217</v>
+        <v>0.4054592868707054</v>
       </c>
       <c r="O15">
-        <v>2.407753855637196</v>
+        <v>3.091297801423821</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.03402104760039</v>
+        <v>3.267211461697798</v>
       </c>
       <c r="C16">
-        <v>0.2912168350113689</v>
+        <v>0.9688578213375934</v>
       </c>
       <c r="D16">
-        <v>0.1089814656396442</v>
+        <v>0.3169694664833429</v>
       </c>
       <c r="E16">
-        <v>0.1376107457855511</v>
+        <v>0.3242413547907361</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002389879603433331</v>
+        <v>0.0007576842935029525</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.436594436675982</v>
+        <v>0.3266122517014054</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4749087456198566</v>
+        <v>1.449560857246752</v>
       </c>
       <c r="N16">
-        <v>0.9650905085280002</v>
+        <v>0.4248556359513955</v>
       </c>
       <c r="O16">
-        <v>2.378243712732427</v>
+        <v>2.911047871079916</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.99403775272026</v>
+        <v>3.129570577034144</v>
       </c>
       <c r="C17">
-        <v>0.2794579080366759</v>
+        <v>0.9284106260813303</v>
       </c>
       <c r="D17">
-        <v>0.1053241181624287</v>
+        <v>0.303045469926758</v>
       </c>
       <c r="E17">
-        <v>0.1344377016679346</v>
+        <v>0.3095943642971619</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.00239115142548743</v>
+        <v>0.0007598106377389888</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4365641856230411</v>
+        <v>0.3183710249793634</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4578557092745683</v>
+        <v>1.385936805159545</v>
       </c>
       <c r="N17">
-        <v>0.9701504298832937</v>
+        <v>0.4371409055902618</v>
       </c>
       <c r="O17">
-        <v>2.360629854635818</v>
+        <v>2.802924775393564</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9710387375336609</v>
+        <v>3.050590947363901</v>
       </c>
       <c r="C18">
-        <v>0.2726902656120842</v>
+        <v>0.905212780722934</v>
       </c>
       <c r="D18">
-        <v>0.1032243461457796</v>
+        <v>0.2950783363967417</v>
       </c>
       <c r="E18">
-        <v>0.1326231498790875</v>
+        <v>0.3012611519846828</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002391893174478546</v>
+        <v>0.0007610407812524102</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.436580667041504</v>
+        <v>0.3137642265552785</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.448057636221435</v>
+        <v>1.349516256737047</v>
       </c>
       <c r="N18">
-        <v>0.9731063528331063</v>
+        <v>0.444344240524444</v>
       </c>
       <c r="O18">
-        <v>2.350678278525635</v>
+        <v>2.7415862948599</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9632514024764305</v>
+        <v>3.02388037062525</v>
       </c>
       <c r="C19">
-        <v>0.270398136893391</v>
+        <v>0.8973691656063636</v>
       </c>
       <c r="D19">
-        <v>0.102514057283841</v>
+        <v>0.2923876588738921</v>
       </c>
       <c r="E19">
-        <v>0.1320105685097772</v>
+        <v>0.2984547478720359</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002392146077444887</v>
+        <v>0.0007614585377500401</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.436592058341688</v>
+        <v>0.3122266964026679</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4447419561244459</v>
+        <v>1.337213499285667</v>
       </c>
       <c r="N19">
-        <v>0.9741150034874408</v>
+        <v>0.4468062874201983</v>
       </c>
       <c r="O19">
-        <v>2.347339619178683</v>
+        <v>2.72095963928723</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9982942227112517</v>
+        <v>3.14420284801696</v>
       </c>
       <c r="C20">
-        <v>0.2807101032807964</v>
+        <v>0.9327092891352038</v>
       </c>
       <c r="D20">
-        <v>0.1057130515838196</v>
+        <v>0.3045233314370392</v>
       </c>
       <c r="E20">
-        <v>0.1347743889597837</v>
+        <v>0.3111439605063921</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002391014979593951</v>
+        <v>0.0007595835537362897</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4365638974055841</v>
+        <v>0.3192343623450924</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4596699585905668</v>
+        <v>1.392691334200606</v>
       </c>
       <c r="N20">
-        <v>0.9696070732141351</v>
+        <v>0.4358188157934073</v>
       </c>
       <c r="O20">
-        <v>2.362486296334197</v>
+        <v>2.814345461484095</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.116011356546949</v>
+        <v>3.550842630332909</v>
       </c>
       <c r="C21">
-        <v>0.315306253139596</v>
+        <v>1.0522867709183</v>
       </c>
       <c r="D21">
-        <v>0.1165071753870706</v>
+        <v>0.3458161805731947</v>
       </c>
       <c r="E21">
-        <v>0.1441865258711914</v>
+        <v>0.3549165869098658</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002387336706216521</v>
+        <v>0.0007533669316282673</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.436874686929734</v>
+        <v>0.3444220516368333</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5099503552705045</v>
+        <v>1.581274260190284</v>
       </c>
       <c r="N21">
-        <v>0.9550060622031751</v>
+        <v>0.4005749623504293</v>
       </c>
       <c r="O21">
-        <v>2.415524584618595</v>
+        <v>3.138636617247926</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.192925736743064</v>
+        <v>3.81868004112988</v>
       </c>
       <c r="C22">
-        <v>0.3378785429185598</v>
+        <v>1.131175361293714</v>
       </c>
       <c r="D22">
-        <v>0.1235962075739963</v>
+        <v>0.3732416405793231</v>
       </c>
       <c r="E22">
-        <v>0.1504333230971255</v>
+        <v>0.3844853150577592</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002385023319791582</v>
+        <v>0.0007493610123593272</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4373813362068759</v>
+        <v>0.3622259339768519</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5429048859361529</v>
+        <v>1.706395144352044</v>
       </c>
       <c r="N22">
-        <v>0.9458703973839562</v>
+        <v>0.3788671069997314</v>
       </c>
       <c r="O22">
-        <v>2.451796752753694</v>
+        <v>3.359276344937825</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.151877236831979</v>
+        <v>3.67551969817481</v>
       </c>
       <c r="C23">
-        <v>0.3258348259033994</v>
+        <v>1.088995960221666</v>
       </c>
       <c r="D23">
-        <v>0.1198094923338431</v>
+        <v>0.3585605938868639</v>
       </c>
       <c r="E23">
-        <v>0.147090465165121</v>
+        <v>0.3686084295695196</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002386249755022495</v>
+        <v>0.0007514941604774788</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4370830664684462</v>
+        <v>0.3525929298698571</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5253078424501325</v>
+        <v>1.639428206010962</v>
       </c>
       <c r="N23">
-        <v>0.9507089908364996</v>
+        <v>0.390326330180315</v>
       </c>
       <c r="O23">
-        <v>2.432289914336792</v>
+        <v>3.240663799972594</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9963699102164583</v>
+        <v>3.137587129337248</v>
       </c>
       <c r="C24">
-        <v>0.2801440084795388</v>
+        <v>0.930765691383499</v>
       </c>
       <c r="D24">
-        <v>0.1055372058008004</v>
+        <v>0.3038550727486182</v>
       </c>
       <c r="E24">
-        <v>0.1346221425269292</v>
+        <v>0.3104431169743549</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002391076633866604</v>
+        <v>0.0007596861944158882</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4365639222125068</v>
+        <v>0.3188436405497015</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4588497179744877</v>
+        <v>1.389637123624325</v>
       </c>
       <c r="N24">
-        <v>0.9698525786551713</v>
+        <v>0.436416096493847</v>
       </c>
       <c r="O24">
-        <v>2.361646454451289</v>
+        <v>2.809179618062217</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8285685403780576</v>
+        <v>2.564326163737064</v>
       </c>
       <c r="C25">
-        <v>0.2306980408184245</v>
+        <v>0.7625546363077547</v>
       </c>
       <c r="D25">
-        <v>0.09028872449209757</v>
+        <v>0.246403236851549</v>
       </c>
       <c r="E25">
-        <v>0.1215732577294162</v>
+        <v>0.2511265105444451</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002396674672865943</v>
+        <v>0.0007687982273411271</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4372981778643066</v>
+        <v>0.2874631950353859</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3875600049020278</v>
+        <v>1.126711721157136</v>
       </c>
       <c r="N25">
-        <v>0.9922445555910713</v>
+        <v>0.4913257227924461</v>
       </c>
       <c r="O25">
-        <v>2.292300077178396</v>
+        <v>2.375759106252787</v>
       </c>
     </row>
   </sheetData>
